--- a/goal.xlsx
+++ b/goal.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -661,8 +661,17 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>20190910</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -708,6 +717,9 @@
       </c>
       <c r="C32">
         <v>20190909</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/goal.xlsx
+++ b/goal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="19095" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="bigdata" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,24 @@
     <sheet name="html" sheetId="3" r:id="rId3"/>
     <sheet name="andriod" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+  <si>
+    <t>知识学习</t>
+  </si>
+  <si>
+    <t>学习进度</t>
+  </si>
+  <si>
+    <t>学习时间</t>
+  </si>
+  <si>
+    <t>笔记梳理</t>
+  </si>
   <si>
     <t>01_Linux基础.rar</t>
   </si>
@@ -140,46 +152,186 @@
   </si>
   <si>
     <t>35_电商数据分析平台项目-11.12.rar</t>
-  </si>
-  <si>
-    <t>知识学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记梳理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +344,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,13 +539,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,15 +797,68 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -513,156 +1146,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="3">
+        <v>20190928</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -670,33 +1314,33 @@
       <c r="C26">
         <v>20190910</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -704,13 +1348,13 @@
       <c r="C31">
         <v>20190909</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -718,110 +1362,113 @@
       <c r="C32">
         <v>20190909</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/goal.xlsx
+++ b/goal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8025"/>
+    <workbookView windowWidth="19095" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bigdata" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>知识学习</t>
   </si>
@@ -58,6 +58,9 @@
     <t>09_Kafka-8.7-8.8.rar</t>
   </si>
   <si>
+    <t>100%(20191006)</t>
+  </si>
+  <si>
     <t>09_杂项.rar</t>
   </si>
   <si>
@@ -152,6 +155,90 @@
   </si>
   <si>
     <t>35_电商数据分析平台项目-11.12.rar</t>
+  </si>
+  <si>
+    <t>Spring4</t>
+  </si>
+  <si>
+    <t>SpringBootBase</t>
+  </si>
+  <si>
+    <t>SpringBootCore</t>
+  </si>
+  <si>
+    <t>SpringCloud</t>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+  </si>
+  <si>
+    <t>SpringAnnotation</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>SSM</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Struts2</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>MyBatisPlus</t>
+  </si>
+  <si>
+    <t>Mybatis</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>SpringData</t>
+  </si>
+  <si>
+    <t>Mapper</t>
+  </si>
+  <si>
+    <t>Dubbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiro </t>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+  </si>
+  <si>
+    <t>Docker核心技术</t>
+  </si>
+  <si>
+    <t>Git&amp;GitHUP视频教程</t>
+  </si>
+  <si>
+    <t>Jenkins视频</t>
+  </si>
+  <si>
+    <t>Maven视频</t>
+  </si>
+  <si>
+    <t>SVN视频教程</t>
+  </si>
+  <si>
+    <t>SVN高级视频</t>
   </si>
 </sst>
 </file>
@@ -159,12 +246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,9 +268,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +357,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -203,58 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -263,67 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -346,31 +426,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,151 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +617,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,38 +668,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,25 +704,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,165 +722,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1150,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1216,204 +1299,204 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>20190928</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26">
         <v>20190910</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31">
         <v>20190909</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32">
         <v>20190909</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1426,14 +1509,257 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>

--- a/goal.xlsx
+++ b/goal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8025" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="bigdata" sheetId="1" r:id="rId1"/>
@@ -246,59 +246,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +268,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -319,64 +367,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,29 +397,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +413,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,49 +431,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,127 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,17 +619,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,21 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +676,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -690,15 +698,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,153 +736,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1233,7 +1235,7 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1299,16 +1301,16 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>20190928</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1388,16 +1390,16 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26">
         <v>20190910</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1422,30 +1424,30 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31">
         <v>20190909</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32">
         <v>20190909</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1511,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1546,7 +1548,9 @@
         <v>49</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2">
+        <v>10.14</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
@@ -1562,7 +1566,9 @@
         <v>51</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2">
+        <v>10.14</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
